--- a/Keys_Excel/testcases/testcases.xlsx
+++ b/Keys_Excel/testcases/testcases.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3 (2)" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -45,6 +46,14 @@
       <family val="3"/>
       <b val="1"/>
       <i val="1"/>
+      <color indexed="2"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="仿宋"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
       <color indexed="2"/>
       <sz val="12"/>
     </font>
@@ -92,18 +101,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -451,22 +461,22 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="8.88671875" customWidth="1" style="7" min="1" max="1"/>
-    <col width="14" customWidth="1" style="7" min="2" max="2"/>
-    <col width="51" customWidth="1" style="7" min="3" max="3"/>
-    <col width="14.21875" customWidth="1" style="7" min="4" max="4"/>
-    <col width="10.21875" customWidth="1" style="7" min="5" max="5"/>
-    <col width="8.88671875" customWidth="1" style="7" min="6" max="11"/>
-    <col width="8.88671875" customWidth="1" style="7" min="12" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="8" min="1" max="1"/>
+    <col width="14" customWidth="1" style="8" min="2" max="2"/>
+    <col width="51" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.21875" customWidth="1" style="8" min="4" max="4"/>
+    <col width="10.21875" customWidth="1" style="8" min="5" max="5"/>
+    <col width="8.88671875" customWidth="1" style="8" min="6" max="19"/>
+    <col width="8.88671875" customWidth="1" style="8" min="20" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" s="7">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="14.4" customHeight="1" s="8">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>用例</t>
         </is>
@@ -504,7 +514,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.6" customHeight="1" s="8">
       <c r="A3" t="n">
         <v>1</v>
       </c>
@@ -523,6 +533,7 @@
           <t>打开浏览器</t>
         </is>
       </c>
+      <c r="F3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -595,7 +606,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>time_=5</t>
+          <t>time_=2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -604,7 +615,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="15.6" customHeight="1" s="7">
+    <row r="8" ht="15.6" customHeight="1" s="8">
       <c r="A8" t="n">
         <v>6</v>
       </c>
@@ -628,13 +639,235 @@
           <t>搜索工具</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="F8" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="G8" s="3" t="n"/>
       <c r="H8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>关闭</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="http://www.baidu.com" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <cols>
+    <col width="8.88671875" customWidth="1" style="8" min="1" max="1"/>
+    <col width="14" customWidth="1" style="8" min="2" max="2"/>
+    <col width="51" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.21875" customWidth="1" style="8" min="4" max="4"/>
+    <col width="10.21875" customWidth="1" style="8" min="5" max="5"/>
+    <col width="8.88671875" customWidth="1" style="8" min="6" max="19"/>
+    <col width="8.88671875" customWidth="1" style="8" min="20" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.4" customHeight="1" s="8">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>用例</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>操作方法</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>参数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.6" customHeight="1" s="8">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>open_browser</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>_type=Chrome</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>打开浏览器</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>url=http://www.baidu.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>打开百度</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>name=id;value=kw;txt=性感美女</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>输入性感美女</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>name=id;value=su</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>点击百度</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15.6" customHeight="1" s="8">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>time_=2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="2" t="n"/>
+    </row>
+    <row r="8" ht="15.6" customHeight="1" s="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>assert_txt</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>name=xpath;value=//div[contains(@class,"tool_3HMbZ")]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>断言</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>搜索工具</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">

--- a/Keys_Excel/testcases/testcases.xlsx
+++ b/Keys_Excel/testcases/testcases.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -76,6 +76,12 @@
     <font>
       <name val="仿宋"/>
       <b val="1"/>
+      <color indexed="2"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="仿宋"/>
+      <b val="1"/>
       <color indexed="3"/>
       <sz val="12"/>
     </font>
@@ -101,7 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -114,6 +120,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -461,7 +468,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
@@ -471,8 +478,8 @@
     <col width="51" customWidth="1" style="8" min="3" max="3"/>
     <col width="14.21875" customWidth="1" style="8" min="4" max="4"/>
     <col width="10.21875" customWidth="1" style="8" min="5" max="5"/>
-    <col width="8.88671875" customWidth="1" style="8" min="6" max="19"/>
-    <col width="8.88671875" customWidth="1" style="8" min="20" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="8" min="6" max="20"/>
+    <col width="8.88671875" customWidth="1" style="8" min="21" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" s="8">
@@ -636,12 +643,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>搜索工具</t>
+          <t>搜索工具1</t>
         </is>
       </c>
       <c r="F8" s="9" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="G8" s="3" t="n"/>
@@ -693,8 +700,8 @@
     <col width="51" customWidth="1" style="8" min="3" max="3"/>
     <col width="14.21875" customWidth="1" style="8" min="4" max="4"/>
     <col width="10.21875" customWidth="1" style="8" min="5" max="5"/>
-    <col width="8.88671875" customWidth="1" style="8" min="6" max="19"/>
-    <col width="8.88671875" customWidth="1" style="8" min="20" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="8" min="6" max="20"/>
+    <col width="8.88671875" customWidth="1" style="8" min="21" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" s="8">
@@ -863,7 +870,7 @@
           <t>搜索工具</t>
         </is>
       </c>
-      <c r="F8" s="9" t="inlineStr">
+      <c r="F8" s="10" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
